--- a/Code/Results/Cases/Case_1_237/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_237/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.60343994582133</v>
+        <v>15.86003550082103</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.768581610239345</v>
+        <v>4.446823480900126</v>
       </c>
       <c r="E2">
-        <v>11.92483403688285</v>
+        <v>19.1350167174431</v>
       </c>
       <c r="F2">
-        <v>16.31985710706256</v>
+        <v>21.59066055625179</v>
       </c>
       <c r="G2">
-        <v>19.71111693419532</v>
+        <v>24.14616097514553</v>
       </c>
       <c r="H2">
-        <v>7.983573302804412</v>
+        <v>13.11496453583104</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.33217741702584</v>
+        <v>10.48029390352347</v>
       </c>
       <c r="L2">
-        <v>6.656232871109251</v>
+        <v>8.056990899017634</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.6637766124169</v>
+        <v>19.20809583049475</v>
       </c>
       <c r="O2">
-        <v>12.81775668809857</v>
+        <v>19.347415422169</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.95801724105622</v>
+        <v>15.74898033238184</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.564418967398601</v>
+        <v>4.368082632537432</v>
       </c>
       <c r="E3">
-        <v>12.05692721502723</v>
+        <v>19.20872617613973</v>
       </c>
       <c r="F3">
-        <v>15.91421059278036</v>
+        <v>21.58745153567825</v>
       </c>
       <c r="G3">
-        <v>19.16381284943072</v>
+        <v>24.13080695176284</v>
       </c>
       <c r="H3">
-        <v>8.001560992032569</v>
+        <v>13.14999524576426</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.73769434397835</v>
+        <v>10.22289605073004</v>
       </c>
       <c r="L3">
-        <v>6.279478915216741</v>
+        <v>8.011465306176349</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.84592742653417</v>
+        <v>19.26568275174242</v>
       </c>
       <c r="O3">
-        <v>12.72701130926061</v>
+        <v>19.39269144727861</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.55085963565084</v>
+        <v>15.68361088360445</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.43367034706708</v>
+        <v>4.318304837739656</v>
       </c>
       <c r="E4">
-        <v>12.14493930221244</v>
+        <v>19.257099452887</v>
       </c>
       <c r="F4">
-        <v>15.67367703030423</v>
+        <v>21.59113795121808</v>
       </c>
       <c r="G4">
-        <v>18.84080554186465</v>
+        <v>24.12926143830791</v>
       </c>
       <c r="H4">
-        <v>8.017344085431617</v>
+        <v>13.1734844166666</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.35704825296386</v>
+        <v>10.05991937796951</v>
       </c>
       <c r="L4">
-        <v>6.03634409953986</v>
+        <v>7.98471019097011</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.96074896267078</v>
+        <v>19.30278746372706</v>
       </c>
       <c r="O4">
-        <v>12.68128638244879</v>
+        <v>19.42454672836973</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.38244158202131</v>
+        <v>15.65770598458786</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.379073606396382</v>
+        <v>4.297673466523229</v>
       </c>
       <c r="E5">
-        <v>12.18249685796455</v>
+        <v>19.27759585435717</v>
       </c>
       <c r="F5">
-        <v>15.57791211252607</v>
+        <v>21.59406388031546</v>
       </c>
       <c r="G5">
-        <v>18.71260129023955</v>
+        <v>24.13061444919467</v>
       </c>
       <c r="H5">
-        <v>8.02493171975487</v>
+        <v>13.18355438506508</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.1981224098411</v>
+        <v>9.99232299846066</v>
       </c>
       <c r="L5">
-        <v>5.934325114016739</v>
+        <v>7.974117201565631</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.00830204814918</v>
+        <v>19.31834820735479</v>
       </c>
       <c r="O5">
-        <v>12.66510827222394</v>
+        <v>19.43854630921661</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.35433254331148</v>
+        <v>15.65344951095414</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.369929699324276</v>
+        <v>4.294227112343525</v>
       </c>
       <c r="E6">
-        <v>12.18883419226349</v>
+        <v>19.28104662714198</v>
       </c>
       <c r="F6">
-        <v>15.56214963003386</v>
+        <v>21.59463573313251</v>
       </c>
       <c r="G6">
-        <v>18.69152388403919</v>
+        <v>24.13095886146062</v>
       </c>
       <c r="H6">
-        <v>8.026260417748784</v>
+        <v>13.18525657008069</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.17150675227795</v>
+        <v>9.981029064693026</v>
       </c>
       <c r="L6">
-        <v>5.917208436482973</v>
+        <v>7.972377210242858</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.01624462138441</v>
+        <v>19.32095868367806</v>
       </c>
       <c r="O6">
-        <v>12.66256840369931</v>
+        <v>19.44093238358594</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.54859807035959</v>
+        <v>15.68325851848888</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.432939305443712</v>
+        <v>4.318027980987384</v>
       </c>
       <c r="E7">
-        <v>12.145439023159</v>
+        <v>19.25737269984706</v>
       </c>
       <c r="F7">
-        <v>15.67237624413773</v>
+        <v>21.59117164594883</v>
       </c>
       <c r="G7">
-        <v>18.83906248775795</v>
+        <v>24.12927165738733</v>
       </c>
       <c r="H7">
-        <v>8.017441781598594</v>
+        <v>13.17361820763761</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.35492017298112</v>
+        <v>10.05901245549659</v>
       </c>
       <c r="L7">
-        <v>6.034980092605313</v>
+        <v>7.984566064052077</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.96138717639722</v>
+        <v>19.30299553711764</v>
       </c>
       <c r="O7">
-        <v>12.6810583380822</v>
+        <v>19.42473141071811</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.3832832596263</v>
+        <v>15.8211738911381</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.699327647791201</v>
+        <v>4.4199782964257</v>
       </c>
       <c r="E8">
-        <v>11.96891860013333</v>
+        <v>19.15978545159089</v>
       </c>
       <c r="F8">
-        <v>16.17828522166284</v>
+        <v>21.58838105505928</v>
       </c>
       <c r="G8">
-        <v>19.51978989206439</v>
+        <v>24.13923207985958</v>
       </c>
       <c r="H8">
-        <v>7.988770417748479</v>
+        <v>13.126632150082</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.13051037210653</v>
+        <v>10.39260086854923</v>
       </c>
       <c r="L8">
-        <v>6.528793238620328</v>
+        <v>8.041050448660632</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.72597160775699</v>
+        <v>19.22759011966096</v>
       </c>
       <c r="O8">
-        <v>12.78436061751981</v>
+        <v>19.36218398585948</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.92529549602868</v>
+        <v>16.1128461400389</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.177469662124019</v>
+        <v>4.608003343921716</v>
       </c>
       <c r="E9">
-        <v>11.67970960262736</v>
+        <v>18.99311298859554</v>
       </c>
       <c r="F9">
-        <v>17.23316535408548</v>
+        <v>21.62769698746067</v>
       </c>
       <c r="G9">
-        <v>20.95146015981178</v>
+        <v>24.22118299948126</v>
       </c>
       <c r="H9">
-        <v>7.971754933047315</v>
+        <v>13.05020372960604</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.52307582145009</v>
+        <v>11.00526144734008</v>
       </c>
       <c r="L9">
-        <v>7.402641352292233</v>
+        <v>8.160917113451983</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.28735917016751</v>
+        <v>19.09351958477334</v>
       </c>
       <c r="O9">
-        <v>13.06852030515337</v>
+        <v>19.27177022361838</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.99107495526952</v>
+        <v>16.33847180496899</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.500208379526399</v>
+        <v>4.738204561387849</v>
       </c>
       <c r="E10">
-        <v>11.5051250930489</v>
+        <v>18.88568171530256</v>
       </c>
       <c r="F10">
-        <v>18.03988652636922</v>
+        <v>21.68369778966754</v>
       </c>
       <c r="G10">
-        <v>22.05330704317322</v>
+        <v>24.31915926734496</v>
       </c>
       <c r="H10">
-        <v>7.985379240457791</v>
+        <v>13.00362829442399</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.46334039849895</v>
+        <v>11.42720709992302</v>
       </c>
       <c r="L10">
-        <v>7.986433661443989</v>
+        <v>8.253967150870317</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.97827413783761</v>
+        <v>19.00335200699507</v>
       </c>
       <c r="O10">
-        <v>13.32975596881919</v>
+        <v>19.22507413816395</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.45991787310154</v>
+        <v>16.44321844566346</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.640589693268473</v>
+        <v>4.79558006674578</v>
       </c>
       <c r="E11">
-        <v>11.43469080639031</v>
+        <v>18.84006405863349</v>
       </c>
       <c r="F11">
-        <v>18.41244063896966</v>
+        <v>21.71500055518838</v>
       </c>
       <c r="G11">
-        <v>22.56361369501267</v>
+        <v>24.37183069717235</v>
       </c>
       <c r="H11">
-        <v>7.997729927145159</v>
+        <v>12.9845188279126</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.87242465953166</v>
+        <v>11.61251479184965</v>
       </c>
       <c r="L11">
-        <v>8.23936448315073</v>
+        <v>8.297253547970488</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.8403235404632</v>
+        <v>18.96412546230664</v>
       </c>
       <c r="O11">
-        <v>13.46045628566557</v>
+        <v>19.20812748161552</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.63506890239501</v>
+        <v>16.48315559712375</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.692808016477017</v>
+        <v>4.817029911388857</v>
       </c>
       <c r="E12">
-        <v>11.40937958993433</v>
+        <v>18.82325726833595</v>
       </c>
       <c r="F12">
-        <v>18.55421620664076</v>
+        <v>21.72768523590266</v>
       </c>
       <c r="G12">
-        <v>22.75802019761849</v>
+        <v>24.39292935733266</v>
       </c>
       <c r="H12">
-        <v>8.00333098817778</v>
+        <v>12.9775813201187</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.02461210644761</v>
+        <v>11.68169243762326</v>
       </c>
       <c r="L12">
-        <v>8.333329902942381</v>
+        <v>8.313771599856363</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.78845047280876</v>
+        <v>18.94952773073095</v>
       </c>
       <c r="O12">
-        <v>13.51168508011611</v>
+        <v>19.20232855488386</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.59745450893103</v>
+        <v>16.47454282739688</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.681603935742392</v>
+        <v>4.812422783131791</v>
       </c>
       <c r="E13">
-        <v>11.41476915526118</v>
+        <v>18.82685611658847</v>
       </c>
       <c r="F13">
-        <v>18.52365284101101</v>
+        <v>21.72491652649316</v>
       </c>
       <c r="G13">
-        <v>22.71610156591059</v>
+        <v>24.38833430650927</v>
       </c>
       <c r="H13">
-        <v>8.002082972697098</v>
+        <v>12.97906214566796</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.99195752746666</v>
+        <v>11.66683861440995</v>
       </c>
       <c r="L13">
-        <v>8.313173349773557</v>
+        <v>8.31020869979853</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.79960625182614</v>
+        <v>18.95266022172143</v>
       </c>
       <c r="O13">
-        <v>13.50057443865781</v>
+        <v>19.20354994514372</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.47437599477543</v>
+        <v>16.446498830944</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.644904664682572</v>
+        <v>4.79735036763755</v>
       </c>
       <c r="E14">
-        <v>11.43258075778184</v>
+        <v>18.83867198305489</v>
       </c>
       <c r="F14">
-        <v>18.42409118595389</v>
+        <v>21.71602752080095</v>
       </c>
       <c r="G14">
-        <v>22.57958504881211</v>
+        <v>24.37354346082773</v>
       </c>
       <c r="H14">
-        <v>7.998171983738396</v>
+        <v>12.98394208583574</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.88500000911149</v>
+        <v>11.61822622225499</v>
       </c>
       <c r="L14">
-        <v>8.247131396163878</v>
+        <v>8.298610029239523</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.83604867219949</v>
+        <v>18.96291936329999</v>
       </c>
       <c r="O14">
-        <v>13.46463597647907</v>
+        <v>19.20763800349711</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.39867329762326</v>
+        <v>16.42935554411712</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.62230233854048</v>
+        <v>4.788081703748894</v>
       </c>
       <c r="E15">
-        <v>11.4436701963965</v>
+        <v>18.84597043545111</v>
       </c>
       <c r="F15">
-        <v>18.36319469102239</v>
+        <v>21.71069074350996</v>
       </c>
       <c r="G15">
-        <v>22.49611247294222</v>
+        <v>24.36463342825446</v>
       </c>
       <c r="H15">
-        <v>7.995897905510454</v>
+        <v>12.98697010738485</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.81912962972856</v>
+        <v>11.58831911261477</v>
       </c>
       <c r="L15">
-        <v>8.206442727200111</v>
+        <v>8.291521636796094</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.85841787272565</v>
+        <v>18.96923675780977</v>
       </c>
       <c r="O15">
-        <v>13.44284942993156</v>
+        <v>19.21022260858084</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.96010506281416</v>
+        <v>16.33166612338306</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.490903230488178</v>
+        <v>4.7344167270091</v>
       </c>
       <c r="E16">
-        <v>11.50991471469804</v>
+        <v>18.88872838465121</v>
       </c>
       <c r="F16">
-        <v>18.0156422891124</v>
+        <v>21.68176877264908</v>
       </c>
       <c r="G16">
-        <v>22.02012755816338</v>
+        <v>24.31587911913804</v>
       </c>
       <c r="H16">
-        <v>7.984699269935851</v>
+        <v>13.00491895920316</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.43622668091648</v>
+        <v>11.4149597488405</v>
       </c>
       <c r="L16">
-        <v>7.969649914656002</v>
+        <v>8.251156592505778</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.9873415958574</v>
+        <v>19.00595150582638</v>
       </c>
       <c r="O16">
-        <v>13.32145574366236</v>
+        <v>19.22626814594544</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.68689216306022</v>
+        <v>16.27225467841059</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.408633860514327</v>
+        <v>4.701012574336499</v>
       </c>
       <c r="E17">
-        <v>11.55290238406089</v>
+        <v>18.9157921159096</v>
       </c>
       <c r="F17">
-        <v>17.80378074994048</v>
+        <v>21.66551403403419</v>
       </c>
       <c r="G17">
-        <v>21.73034569714003</v>
+        <v>24.28803709898402</v>
       </c>
       <c r="H17">
-        <v>7.979433174999993</v>
+        <v>13.01646223340758</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.19651854449316</v>
+        <v>11.30687981331581</v>
       </c>
       <c r="L17">
-        <v>7.821149223036314</v>
+        <v>8.22663123530484</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.06710073169018</v>
+        <v>19.02893281392495</v>
       </c>
       <c r="O17">
-        <v>13.25004559740596</v>
+        <v>19.23721234581959</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.52824675209977</v>
+        <v>16.23828314042078</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.360709797752699</v>
+        <v>4.681625493973707</v>
       </c>
       <c r="E18">
-        <v>11.57846910240544</v>
+        <v>18.93166469176862</v>
       </c>
       <c r="F18">
-        <v>17.68245384135194</v>
+        <v>21.65671375647754</v>
       </c>
       <c r="G18">
-        <v>21.56453224801916</v>
+        <v>24.27278649280239</v>
       </c>
       <c r="H18">
-        <v>7.976981044724854</v>
+        <v>13.0232972038335</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.05689144833065</v>
+        <v>11.24409248490434</v>
       </c>
       <c r="L18">
-        <v>7.734545409947388</v>
+        <v>8.21261570716722</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.11322683098033</v>
+        <v>19.04231970710902</v>
       </c>
       <c r="O18">
-        <v>13.21008752383675</v>
+        <v>19.24391145737744</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.4742775215975</v>
+        <v>16.22681632041143</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.344380179238845</v>
+        <v>4.675031824733434</v>
       </c>
       <c r="E19">
-        <v>11.58726803378866</v>
+        <v>18.93709147564702</v>
       </c>
       <c r="F19">
-        <v>17.64146901417809</v>
+        <v>21.65382862504077</v>
       </c>
       <c r="G19">
-        <v>21.50854309815101</v>
+        <v>24.26775434205113</v>
       </c>
       <c r="H19">
-        <v>7.976248660527495</v>
+        <v>13.02564499799967</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.00931645059404</v>
+        <v>11.222728116785</v>
       </c>
       <c r="L19">
-        <v>7.705018396258629</v>
+        <v>8.207886226166321</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.12888787594375</v>
+        <v>19.04688127771093</v>
       </c>
       <c r="O19">
-        <v>13.19674895545136</v>
+        <v>19.24624907487748</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.71613216943868</v>
+        <v>16.27855861799488</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.417454305098252</v>
+        <v>4.704586578807925</v>
       </c>
       <c r="E20">
-        <v>11.54823871319051</v>
+        <v>18.91287944304841</v>
       </c>
       <c r="F20">
-        <v>17.82627967521229</v>
+        <v>21.66718760494801</v>
       </c>
       <c r="G20">
-        <v>21.7611053758533</v>
+        <v>24.29092200164941</v>
       </c>
       <c r="H20">
-        <v>7.979933779375314</v>
+        <v>13.01521318963652</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.22221768801871</v>
+        <v>11.31844984517046</v>
       </c>
       <c r="L20">
-        <v>7.837080537314307</v>
+        <v>8.22923268397293</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.05858439624378</v>
+        <v>19.02646896720823</v>
       </c>
       <c r="O20">
-        <v>13.25753168592004</v>
+        <v>19.23600546802081</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.5105926166727</v>
+        <v>16.45472890513285</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.655709779199948</v>
+        <v>4.80178509948868</v>
       </c>
       <c r="E21">
-        <v>11.42731156006573</v>
+        <v>18.83518868694387</v>
       </c>
       <c r="F21">
-        <v>18.4533167129567</v>
+        <v>21.71861594506365</v>
       </c>
       <c r="G21">
-        <v>22.61965270119806</v>
+        <v>24.37785669898203</v>
       </c>
       <c r="H21">
-        <v>7.999295342146234</v>
+        <v>12.98250061876788</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.9164902368951</v>
+        <v>11.63253214650686</v>
       </c>
       <c r="L21">
-        <v>8.266578703054121</v>
+        <v>8.302013499169423</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.82533484946443</v>
+        <v>18.95989905147008</v>
       </c>
       <c r="O21">
-        <v>13.47514466301705</v>
+        <v>19.20642045392167</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.01586144084982</v>
+        <v>16.57143632839511</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.80593335775154</v>
+        <v>4.863690927147589</v>
       </c>
       <c r="E22">
-        <v>11.35624495230874</v>
+        <v>18.78713888905288</v>
       </c>
       <c r="F22">
-        <v>18.8671452846788</v>
+        <v>21.75706708444926</v>
       </c>
       <c r="G22">
-        <v>23.18749596660649</v>
+        <v>24.4413880571585</v>
       </c>
       <c r="H22">
-        <v>8.017353965529885</v>
+        <v>12.96286288509074</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.35434806260018</v>
+        <v>11.83199126315709</v>
       </c>
       <c r="L22">
-        <v>8.536711486642467</v>
+        <v>8.35031157647685</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.67501747155642</v>
+        <v>18.91788641778581</v>
       </c>
       <c r="O22">
-        <v>13.62749320468023</v>
+        <v>19.19068963081565</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.74749200082659</v>
+        <v>16.50901415034388</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.726262942454165</v>
+        <v>4.830802042800523</v>
       </c>
       <c r="E23">
-        <v>11.39342180560807</v>
+        <v>18.81253464020169</v>
       </c>
       <c r="F23">
-        <v>18.64594092835221</v>
+        <v>21.73610473236739</v>
       </c>
       <c r="G23">
-        <v>22.88385370860006</v>
+        <v>24.40687020431818</v>
       </c>
       <c r="H23">
-        <v>8.007208217880827</v>
+        <v>12.97318453233688</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.1221203579266</v>
+        <v>11.72608020248882</v>
       </c>
       <c r="L23">
-        <v>8.393501477367483</v>
+        <v>8.32447080392026</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.75505560872889</v>
+        <v>18.94017293482911</v>
       </c>
       <c r="O23">
-        <v>13.54524682593439</v>
+        <v>19.19875546644029</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.70291765086097</v>
+        <v>16.27570802860712</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.413468531670794</v>
+        <v>4.702971339309597</v>
       </c>
       <c r="E24">
-        <v>11.5503445084821</v>
+        <v>18.91419528661682</v>
       </c>
       <c r="F24">
-        <v>17.81610642322478</v>
+        <v>21.66642928605334</v>
       </c>
       <c r="G24">
-        <v>21.7471964660784</v>
+        <v>24.28961538096096</v>
       </c>
       <c r="H24">
-        <v>7.979705666819283</v>
+        <v>13.01577726373663</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.2106047573792</v>
+        <v>11.31322105761922</v>
       </c>
       <c r="L24">
-        <v>7.829881817750471</v>
+        <v>8.228056305202951</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.06243378461905</v>
+        <v>19.02758232825434</v>
       </c>
       <c r="O24">
-        <v>13.25414381201939</v>
+        <v>19.23654982930063</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.51936312917439</v>
+        <v>16.03183131241305</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.053038012818937</v>
+        <v>4.558484934120863</v>
       </c>
       <c r="E25">
-        <v>11.75153684485032</v>
+        <v>19.03556185650563</v>
       </c>
       <c r="F25">
-        <v>16.94175595029364</v>
+        <v>21.61228153020159</v>
       </c>
       <c r="G25">
-        <v>20.55473275887843</v>
+        <v>24.19235250346236</v>
       </c>
       <c r="H25">
-        <v>7.971931721812489</v>
+        <v>13.06919773992295</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.16062657977042</v>
+        <v>10.84427621173226</v>
       </c>
       <c r="L25">
-        <v>7.176447093987716</v>
+        <v>8.127572581506151</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.40363863433192</v>
+        <v>19.12832006018177</v>
       </c>
       <c r="O25">
-        <v>12.98260931242481</v>
+        <v>19.29276926642135</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_237/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_237/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.86003550082103</v>
+        <v>13.60343994582132</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.446823480900126</v>
+        <v>4.768581610239299</v>
       </c>
       <c r="E2">
-        <v>19.1350167174431</v>
+        <v>11.92483403688279</v>
       </c>
       <c r="F2">
-        <v>21.59066055625179</v>
+        <v>16.31985710706248</v>
       </c>
       <c r="G2">
-        <v>24.14616097514553</v>
+        <v>19.71111693419526</v>
       </c>
       <c r="H2">
-        <v>13.11496453583104</v>
+        <v>7.983573302804348</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.48029390352347</v>
+        <v>13.33217741702584</v>
       </c>
       <c r="L2">
-        <v>8.056990899017634</v>
+        <v>6.656232871109273</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.20809583049475</v>
+        <v>12.66377661241683</v>
       </c>
       <c r="O2">
-        <v>19.347415422169</v>
+        <v>12.81775668809849</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.74898033238184</v>
+        <v>12.95801724105618</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.368082632537432</v>
+        <v>4.564418967398409</v>
       </c>
       <c r="E3">
-        <v>19.20872617613973</v>
+        <v>12.05692721502741</v>
       </c>
       <c r="F3">
-        <v>21.58745153567825</v>
+        <v>15.91421059278024</v>
       </c>
       <c r="G3">
-        <v>24.13080695176284</v>
+        <v>19.16381284943055</v>
       </c>
       <c r="H3">
-        <v>13.14999524576426</v>
+        <v>8.001560992032502</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.22289605073004</v>
+        <v>12.73769434397841</v>
       </c>
       <c r="L3">
-        <v>8.011465306176349</v>
+        <v>6.279478915216654</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.26568275174242</v>
+        <v>12.84592742653414</v>
       </c>
       <c r="O3">
-        <v>19.39269144727861</v>
+        <v>12.72701130926047</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.68361088360445</v>
+        <v>12.55085963565079</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.318304837739656</v>
+        <v>4.433670347067069</v>
       </c>
       <c r="E4">
-        <v>19.257099452887</v>
+        <v>12.14493930221256</v>
       </c>
       <c r="F4">
-        <v>21.59113795121808</v>
+        <v>15.673677030304</v>
       </c>
       <c r="G4">
-        <v>24.12926143830791</v>
+        <v>18.84080554186444</v>
       </c>
       <c r="H4">
-        <v>13.1734844166666</v>
+        <v>8.01734408543139</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.05991937796951</v>
+        <v>12.35704825296405</v>
       </c>
       <c r="L4">
-        <v>7.98471019097011</v>
+        <v>6.036344099539858</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.30278746372706</v>
+        <v>12.96074896267074</v>
       </c>
       <c r="O4">
-        <v>19.42454672836973</v>
+        <v>12.68128638244854</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.65770598458786</v>
+        <v>12.38244158202132</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.297673466523229</v>
+        <v>4.379073606396376</v>
       </c>
       <c r="E5">
-        <v>19.27759585435717</v>
+        <v>12.18249685796449</v>
       </c>
       <c r="F5">
-        <v>21.59406388031546</v>
+        <v>15.57791211252602</v>
       </c>
       <c r="G5">
-        <v>24.13061444919467</v>
+        <v>18.71260129023955</v>
       </c>
       <c r="H5">
-        <v>13.18355438506508</v>
+        <v>8.024931719754751</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.99232299846066</v>
+        <v>12.19812240984112</v>
       </c>
       <c r="L5">
-        <v>7.974117201565631</v>
+        <v>5.934325114016811</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.31834820735479</v>
+        <v>13.00830204814915</v>
       </c>
       <c r="O5">
-        <v>19.43854630921661</v>
+        <v>12.66510827222392</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.65344951095414</v>
+        <v>12.35433254331153</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.294227112343525</v>
+        <v>4.369929699324324</v>
       </c>
       <c r="E6">
-        <v>19.28104662714198</v>
+        <v>12.18883419226356</v>
       </c>
       <c r="F6">
-        <v>21.59463573313251</v>
+        <v>15.56214963003375</v>
       </c>
       <c r="G6">
-        <v>24.13095886146062</v>
+        <v>18.69152388403897</v>
       </c>
       <c r="H6">
-        <v>13.18525657008069</v>
+        <v>8.026260417748729</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.981029064693026</v>
+        <v>12.17150675227801</v>
       </c>
       <c r="L6">
-        <v>7.972377210242858</v>
+        <v>5.917208436483038</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.32095868367806</v>
+        <v>13.01624462138438</v>
       </c>
       <c r="O6">
-        <v>19.44093238358594</v>
+        <v>12.66256840369919</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.68325851848888</v>
+        <v>12.54859807035957</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.318027980987384</v>
+        <v>4.432939305443583</v>
       </c>
       <c r="E7">
-        <v>19.25737269984706</v>
+        <v>12.14543902315919</v>
       </c>
       <c r="F7">
-        <v>21.59117164594883</v>
+        <v>15.6723762441376</v>
       </c>
       <c r="G7">
-        <v>24.12927165738733</v>
+        <v>18.83906248775766</v>
       </c>
       <c r="H7">
-        <v>13.17361820763761</v>
+        <v>8.017441781598581</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.05901245549659</v>
+        <v>12.35492017298117</v>
       </c>
       <c r="L7">
-        <v>7.984566064052077</v>
+        <v>6.034980092605321</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.30299553711764</v>
+        <v>12.96138717639715</v>
       </c>
       <c r="O7">
-        <v>19.42473141071811</v>
+        <v>12.68105833808207</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.8211738911381</v>
+        <v>13.3832832596263</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.4199782964257</v>
+        <v>4.699327647791208</v>
       </c>
       <c r="E8">
-        <v>19.15978545159089</v>
+        <v>11.96891860013322</v>
       </c>
       <c r="F8">
-        <v>21.58838105505928</v>
+        <v>16.17828522166284</v>
       </c>
       <c r="G8">
-        <v>24.13923207985958</v>
+        <v>19.51978989206432</v>
       </c>
       <c r="H8">
-        <v>13.126632150082</v>
+        <v>7.988770417748476</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.39260086854923</v>
+        <v>13.13051037210652</v>
       </c>
       <c r="L8">
-        <v>8.041050448660632</v>
+        <v>6.528793238620363</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.22759011966096</v>
+        <v>12.72597160775699</v>
       </c>
       <c r="O8">
-        <v>19.36218398585948</v>
+        <v>12.78436061751981</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.1128461400389</v>
+        <v>14.92529549602867</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.608003343921716</v>
+        <v>5.17746966212392</v>
       </c>
       <c r="E9">
-        <v>18.99311298859554</v>
+        <v>11.67970960262759</v>
       </c>
       <c r="F9">
-        <v>21.62769698746067</v>
+        <v>17.2331653540854</v>
       </c>
       <c r="G9">
-        <v>24.22118299948126</v>
+        <v>20.95146015981154</v>
       </c>
       <c r="H9">
-        <v>13.05020372960604</v>
+        <v>7.971754933047262</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.00526144734008</v>
+        <v>14.5230758214502</v>
       </c>
       <c r="L9">
-        <v>8.160917113451983</v>
+        <v>7.402641352292176</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.09351958477334</v>
+        <v>12.28735917016748</v>
       </c>
       <c r="O9">
-        <v>19.27177022361838</v>
+        <v>13.06852030515325</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.33847180496899</v>
+        <v>15.99107495526953</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.738204561387849</v>
+        <v>5.500208379526317</v>
       </c>
       <c r="E10">
-        <v>18.88568171530256</v>
+        <v>11.50512509304883</v>
       </c>
       <c r="F10">
-        <v>21.68369778966754</v>
+        <v>18.03988652636919</v>
       </c>
       <c r="G10">
-        <v>24.31915926734496</v>
+        <v>22.05330704317307</v>
       </c>
       <c r="H10">
-        <v>13.00362829442399</v>
+        <v>7.985379240457881</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.42720709992302</v>
+        <v>15.46334039849893</v>
       </c>
       <c r="L10">
-        <v>8.253967150870317</v>
+        <v>7.986433661443988</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.00335200699507</v>
+        <v>11.97827413783758</v>
       </c>
       <c r="O10">
-        <v>19.22507413816395</v>
+        <v>13.32975596881914</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.44321844566346</v>
+        <v>16.45991787310152</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.79558006674578</v>
+        <v>5.640589693268582</v>
       </c>
       <c r="E11">
-        <v>18.84006405863349</v>
+        <v>11.43469080639031</v>
       </c>
       <c r="F11">
-        <v>21.71500055518838</v>
+        <v>18.41244063896956</v>
       </c>
       <c r="G11">
-        <v>24.37183069717235</v>
+        <v>22.56361369501255</v>
       </c>
       <c r="H11">
-        <v>12.9845188279126</v>
+        <v>7.99772992714511</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.61251479184965</v>
+        <v>15.87242465953175</v>
       </c>
       <c r="L11">
-        <v>8.297253547970488</v>
+        <v>8.239364483150737</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.96412546230664</v>
+        <v>11.84032354046306</v>
       </c>
       <c r="O11">
-        <v>19.20812748161552</v>
+        <v>13.46045628566544</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.48315559712375</v>
+        <v>16.63506890239506</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.817029911388857</v>
+        <v>5.692808016476944</v>
       </c>
       <c r="E12">
-        <v>18.82325726833595</v>
+        <v>11.40937958993451</v>
       </c>
       <c r="F12">
-        <v>21.72768523590266</v>
+        <v>18.55421620664077</v>
       </c>
       <c r="G12">
-        <v>24.39292935733266</v>
+        <v>22.75802019761851</v>
       </c>
       <c r="H12">
-        <v>12.9775813201187</v>
+        <v>8.003330988177725</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.68169243762326</v>
+        <v>16.0246121064476</v>
       </c>
       <c r="L12">
-        <v>8.313771599856363</v>
+        <v>8.333329902942387</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.94952773073095</v>
+        <v>11.78845047280872</v>
       </c>
       <c r="O12">
-        <v>19.20232855488386</v>
+        <v>13.51168508011608</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.47454282739688</v>
+        <v>16.59745450893104</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.812422783131791</v>
+        <v>5.68160393574257</v>
       </c>
       <c r="E13">
-        <v>18.82685611658847</v>
+        <v>11.41476915526125</v>
       </c>
       <c r="F13">
-        <v>21.72491652649316</v>
+        <v>18.52365284101091</v>
       </c>
       <c r="G13">
-        <v>24.38833430650927</v>
+        <v>22.71610156591055</v>
       </c>
       <c r="H13">
-        <v>12.97906214566796</v>
+        <v>8.002082972697048</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.66683861440995</v>
+        <v>15.99195752746663</v>
       </c>
       <c r="L13">
-        <v>8.31020869979853</v>
+        <v>8.313173349773527</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.95266022172143</v>
+        <v>11.79960625182601</v>
       </c>
       <c r="O13">
-        <v>19.20354994514372</v>
+        <v>13.50057443865775</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.446498830944</v>
+        <v>16.47437599477543</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.79735036763755</v>
+        <v>5.644904664682511</v>
       </c>
       <c r="E14">
-        <v>18.83867198305489</v>
+        <v>11.432580757782</v>
       </c>
       <c r="F14">
-        <v>21.71602752080095</v>
+        <v>18.42409118595386</v>
       </c>
       <c r="G14">
-        <v>24.37354346082773</v>
+        <v>22.57958504881197</v>
       </c>
       <c r="H14">
-        <v>12.98394208583574</v>
+        <v>7.998171983738296</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.61822622225499</v>
+        <v>15.88500000911157</v>
       </c>
       <c r="L14">
-        <v>8.298610029239523</v>
+        <v>8.247131396163883</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.96291936329999</v>
+        <v>11.83604867219942</v>
       </c>
       <c r="O14">
-        <v>19.20763800349711</v>
+        <v>13.46463597647899</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.42935554411712</v>
+        <v>16.39867329762327</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.788081703748894</v>
+        <v>5.622302338540393</v>
       </c>
       <c r="E15">
-        <v>18.84597043545111</v>
+        <v>11.44367019639656</v>
       </c>
       <c r="F15">
-        <v>21.71069074350996</v>
+        <v>18.36319469102238</v>
       </c>
       <c r="G15">
-        <v>24.36463342825446</v>
+        <v>22.49611247294219</v>
       </c>
       <c r="H15">
-        <v>12.98697010738485</v>
+        <v>7.995897905510454</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.58831911261477</v>
+        <v>15.81912962972863</v>
       </c>
       <c r="L15">
-        <v>8.291521636796094</v>
+        <v>8.206442727200155</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.96923675780977</v>
+        <v>11.85841787272568</v>
       </c>
       <c r="O15">
-        <v>19.21022260858084</v>
+        <v>13.44284942993152</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.33166612338306</v>
+        <v>15.96010506281415</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.7344167270091</v>
+        <v>5.490903230488263</v>
       </c>
       <c r="E16">
-        <v>18.88872838465121</v>
+        <v>11.50991471469798</v>
       </c>
       <c r="F16">
-        <v>21.68176877264908</v>
+        <v>18.01564228911233</v>
       </c>
       <c r="G16">
-        <v>24.31587911913804</v>
+        <v>22.02012755816327</v>
       </c>
       <c r="H16">
-        <v>13.00491895920316</v>
+        <v>7.984699269935848</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.4149597488405</v>
+        <v>15.43622668091647</v>
       </c>
       <c r="L16">
-        <v>8.251156592505778</v>
+        <v>7.969649914656022</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.00595150582638</v>
+        <v>11.98734159585736</v>
       </c>
       <c r="O16">
-        <v>19.22626814594544</v>
+        <v>13.32145574366229</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.27225467841059</v>
+        <v>15.68689216306025</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.701012574336499</v>
+        <v>5.408633860514424</v>
       </c>
       <c r="E17">
-        <v>18.9157921159096</v>
+        <v>11.55290238406111</v>
       </c>
       <c r="F17">
-        <v>21.66551403403419</v>
+        <v>17.80378074994037</v>
       </c>
       <c r="G17">
-        <v>24.28803709898402</v>
+        <v>21.73034569713993</v>
       </c>
       <c r="H17">
-        <v>13.01646223340758</v>
+        <v>7.979433174999931</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.30687981331581</v>
+        <v>15.19651854449322</v>
       </c>
       <c r="L17">
-        <v>8.22663123530484</v>
+        <v>7.821149223036339</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.02893281392495</v>
+        <v>12.06710073169019</v>
       </c>
       <c r="O17">
-        <v>19.23721234581959</v>
+        <v>13.25004559740587</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.23828314042078</v>
+        <v>15.52824675209973</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.681625493973707</v>
+        <v>5.36070979775281</v>
       </c>
       <c r="E18">
-        <v>18.93166469176862</v>
+        <v>11.57846910240544</v>
       </c>
       <c r="F18">
-        <v>21.65671375647754</v>
+        <v>17.68245384135179</v>
       </c>
       <c r="G18">
-        <v>24.27278649280239</v>
+        <v>21.56453224801913</v>
       </c>
       <c r="H18">
-        <v>13.0232972038335</v>
+        <v>7.976981044724756</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.24409248490434</v>
+        <v>15.0568914483307</v>
       </c>
       <c r="L18">
-        <v>8.21261570716722</v>
+        <v>7.73454540994738</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.04231970710902</v>
+        <v>12.1132268309803</v>
       </c>
       <c r="O18">
-        <v>19.24391145737744</v>
+        <v>13.2100875238367</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.22681632041143</v>
+        <v>15.47427752159749</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.675031824733434</v>
+        <v>5.344380179238767</v>
       </c>
       <c r="E19">
-        <v>18.93709147564702</v>
+        <v>11.58726803378879</v>
       </c>
       <c r="F19">
-        <v>21.65382862504077</v>
+        <v>17.64146901417806</v>
       </c>
       <c r="G19">
-        <v>24.26775434205113</v>
+        <v>21.50854309815093</v>
       </c>
       <c r="H19">
-        <v>13.02564499799967</v>
+        <v>7.976248660527483</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.222728116785</v>
+        <v>15.00931645059403</v>
       </c>
       <c r="L19">
-        <v>8.207886226166321</v>
+        <v>7.70501839625861</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.04688127771093</v>
+        <v>12.12888787594371</v>
       </c>
       <c r="O19">
-        <v>19.24624907487748</v>
+        <v>13.19674895545132</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.27855861799488</v>
+        <v>15.71613216943865</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.704586578807925</v>
+        <v>5.417454305098314</v>
       </c>
       <c r="E20">
-        <v>18.91287944304841</v>
+        <v>11.54823871319032</v>
       </c>
       <c r="F20">
-        <v>21.66718760494801</v>
+        <v>17.82627967521219</v>
       </c>
       <c r="G20">
-        <v>24.29092200164941</v>
+        <v>21.76110537585325</v>
       </c>
       <c r="H20">
-        <v>13.01521318963652</v>
+        <v>7.979933779375139</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.31844984517046</v>
+        <v>15.22221768801872</v>
       </c>
       <c r="L20">
-        <v>8.22923268397293</v>
+        <v>7.837080537314399</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.02646896720823</v>
+        <v>12.05858439624368</v>
       </c>
       <c r="O20">
-        <v>19.23600546802081</v>
+        <v>13.25753168591995</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.45472890513285</v>
+        <v>16.5105926166727</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.80178509948868</v>
+        <v>5.655709779199988</v>
       </c>
       <c r="E21">
-        <v>18.83518868694387</v>
+        <v>11.4273115600659</v>
       </c>
       <c r="F21">
-        <v>21.71861594506365</v>
+        <v>18.45331671295663</v>
       </c>
       <c r="G21">
-        <v>24.37785669898203</v>
+        <v>22.619652701198</v>
       </c>
       <c r="H21">
-        <v>12.98250061876788</v>
+        <v>7.999295342146179</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.63253214650686</v>
+        <v>15.91649023689516</v>
       </c>
       <c r="L21">
-        <v>8.302013499169423</v>
+        <v>8.266578703054078</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.95989905147008</v>
+        <v>11.82533484946443</v>
       </c>
       <c r="O21">
-        <v>19.20642045392167</v>
+        <v>13.47514466301699</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.57143632839511</v>
+        <v>17.01586144084985</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.863690927147589</v>
+        <v>5.805933357751507</v>
       </c>
       <c r="E22">
-        <v>18.78713888905288</v>
+        <v>11.35624495230879</v>
       </c>
       <c r="F22">
-        <v>21.75706708444926</v>
+        <v>18.86714528467877</v>
       </c>
       <c r="G22">
-        <v>24.4413880571585</v>
+        <v>23.18749596660649</v>
       </c>
       <c r="H22">
-        <v>12.96286288509074</v>
+        <v>8.017353965529837</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.83199126315709</v>
+        <v>16.35434806260019</v>
       </c>
       <c r="L22">
-        <v>8.35031157647685</v>
+        <v>8.53671148664252</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.91788641778581</v>
+        <v>11.67501747155642</v>
       </c>
       <c r="O22">
-        <v>19.19068963081565</v>
+        <v>13.62749320468021</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.50901415034388</v>
+        <v>16.74749200082656</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.830802042800523</v>
+        <v>5.726262942454157</v>
       </c>
       <c r="E23">
-        <v>18.81253464020169</v>
+        <v>11.39342180560802</v>
       </c>
       <c r="F23">
-        <v>21.73610473236739</v>
+        <v>18.64594092835219</v>
       </c>
       <c r="G23">
-        <v>24.40687020431818</v>
+        <v>22.88385370859996</v>
       </c>
       <c r="H23">
-        <v>12.97318453233688</v>
+        <v>8.007208217880814</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.72608020248882</v>
+        <v>16.12212035792663</v>
       </c>
       <c r="L23">
-        <v>8.32447080392026</v>
+        <v>8.393501477367481</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.94017293482911</v>
+        <v>11.75505560872885</v>
       </c>
       <c r="O23">
-        <v>19.19875546644029</v>
+        <v>13.54524682593434</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.27570802860712</v>
+        <v>15.70291765086098</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.702971339309597</v>
+        <v>5.413468531670744</v>
       </c>
       <c r="E24">
-        <v>18.91419528661682</v>
+        <v>11.55034450848217</v>
       </c>
       <c r="F24">
-        <v>21.66642928605334</v>
+        <v>17.81610642322464</v>
       </c>
       <c r="G24">
-        <v>24.28961538096096</v>
+        <v>21.74719646607823</v>
       </c>
       <c r="H24">
-        <v>13.01577726373663</v>
+        <v>7.979705666819125</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.31322105761922</v>
+        <v>15.21060475737926</v>
       </c>
       <c r="L24">
-        <v>8.228056305202951</v>
+        <v>7.829881817750496</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.02758232825434</v>
+        <v>12.06243378461896</v>
       </c>
       <c r="O24">
-        <v>19.23654982930063</v>
+        <v>13.25414381201924</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.03183131241305</v>
+        <v>14.5193631291744</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.558484934120863</v>
+        <v>5.053038012818992</v>
       </c>
       <c r="E25">
-        <v>19.03556185650563</v>
+        <v>11.75153684485039</v>
       </c>
       <c r="F25">
-        <v>21.61228153020159</v>
+        <v>16.94175595029349</v>
       </c>
       <c r="G25">
-        <v>24.19235250346236</v>
+        <v>20.55473275887827</v>
       </c>
       <c r="H25">
-        <v>13.06919773992295</v>
+        <v>7.971931721812429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.84427621173226</v>
+        <v>14.16062657977043</v>
       </c>
       <c r="L25">
-        <v>8.127572581506151</v>
+        <v>7.176447093987701</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.12832006018177</v>
+        <v>12.40363863433186</v>
       </c>
       <c r="O25">
-        <v>19.29276926642135</v>
+        <v>12.98260931242467</v>
       </c>
     </row>
   </sheetData>
